--- a/example/template.xlsx
+++ b/example/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>{field_1}</t>
   </si>
   <si>
-    <t>{image_field}</t>
+    <t>{image_field:image}</t>
   </si>
   <si>
     <t>{field_2}</t>
@@ -31,7 +31,7 @@
     <t>{group_1:subgroup:field}</t>
   </si>
   <si>
-    <t>{qr_code_field}</t>
+    <t>{qr_code_field:qr_code_row}</t>
   </si>
   <si>
     <t>this row will delete</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -133,7 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,17 +148,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,20 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,8 +170,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -208,6 +223,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,16 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,35 +263,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,19 +277,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,163 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,21 +538,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -563,6 +548,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>

--- a/example/template.xlsx
+++ b/example/template.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="simple" sheetId="1" r:id="rId1"/>
+    <sheet name="qr_code" sheetId="2" r:id="rId2"/>
+    <sheet name="image" sheetId="3" r:id="rId3"/>
+    <sheet name="table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,9 +22,6 @@
     <t>{field_1}</t>
   </si>
   <si>
-    <t>{image_field:image}</t>
-  </si>
-  <si>
     <t>{field_2}</t>
   </si>
   <si>
@@ -31,16 +31,19 @@
     <t>{group_1:subgroup:field}</t>
   </si>
   <si>
-    <t>{qr_code_field:qr_code_row}</t>
+    <t>{urls:qr_code_row}</t>
+  </si>
+  <si>
+    <t>{url:qr_code}</t>
+  </si>
+  <si>
+    <t>{geomyidae:image}</t>
+  </si>
+  <si>
+    <t>{group_1:table_example:table}</t>
   </si>
   <si>
     <t>this row will delete</t>
-  </si>
-  <si>
-    <t>{group_1:field_2:table}</t>
-  </si>
-  <si>
-    <t>this row will copy</t>
   </si>
   <si>
     <t>{column_1}</t>
@@ -49,10 +52,10 @@
     <t>{column_2}</t>
   </si>
   <si>
-    <t>{column_3}</t>
+    <t>{column_3:qr_code}</t>
   </si>
   <si>
-    <t>{column_4}</t>
+    <t>this row will copy</t>
   </si>
 </sst>
 </file>
@@ -61,11 +64,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +82,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -124,6 +132,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -132,23 +223,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,107 +254,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,85 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,98 +469,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -487,8 +495,21 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -499,8 +520,27 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,15 +549,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +564,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +600,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -572,32 +609,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,139 +631,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,45 +772,75 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,93 +1162,446 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="13.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="17.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="9.22222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" ht="20.25" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:17">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:17">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63" customHeight="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" ht="47" customHeight="1" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" ht="47" customHeight="1" spans="3:3">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="53.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="26.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="2" ht="47" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
